--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yy\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47B562-DC8C-4F47-93A1-230B53756736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F1B55-EA96-4DAB-A830-F5B4AEE521CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>计划：使用Yolov5训练自己的数据集
-成果：</t>
+成果：确诊阳性居家休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F1B55-EA96-4DAB-A830-F5B4AEE521CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3247CAB-377B-458E-A5EB-FACD498D64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,23 @@
   <si>
     <t>计划：使用Yolov5训练自己的数据集
 成果：确诊阳性居家休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.19-2022.12.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确诊阳性居家休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.26-2022.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：使用Yolov5训练自己的数据集
+成果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,10 +489,20 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3247CAB-377B-458E-A5EB-FACD498D64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86166F5-934C-4BC7-A43E-72B5DE5A7DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>计划：使用Yolov5训练自己的数据集
+成果：已完成使用yolov5训练自己的数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.1.3-2023.1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划:
 成果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +444,10 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" customWidth="1"/>
@@ -448,7 +457,7 @@
     <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -456,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -464,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -472,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -488,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -504,16 +513,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86166F5-934C-4BC7-A43E-72B5DE5A7DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29689E-9AA6-4820-9308-9D56468D23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="2220" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +96,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划:
+    <t>计划:学习守护线程
+成果:已完成守护线程的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.1.9-2023.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划;图像处理
 成果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -522,7 +531,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29689E-9AA6-4820-9308-9D56468D23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A714E-9DED-418A-A67C-6FAAC497EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="2220" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="1284" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,7 +105,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划;图像处理
+    <t>计划;图像处理并标注尺寸坐标
+成果：已完成图像处理并标注尺寸坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.1.16-2023.1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：学习opc通信
 成果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,7 +462,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -539,7 +548,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -1,153 +1,457 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A714E-9DED-418A-A67C-6FAAC497EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="1284" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22320" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
     <sheet name="2022.12" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>时间</t>
+  </si>
   <si>
     <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.11.28-2022.12.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 2022.11.24-2022.11.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划：学习postman软件使用
 成果：服务器搭建成功，网页调试成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.5-2022.12.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.28-2022.12.2</t>
   </si>
   <si>
     <t>计划：任务1：工程现场调试
 任务二：C++Opencv环境配置
 成果：已完成 测试 threshold cvtColor函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.5-2022.12.11</t>
   </si>
   <si>
     <t xml:space="preserve">计划：任务1：工程现场调试
 任务二：学习git软件使用
 成果：已完成 git软件的使用 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022.12.12-2022.12.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划：使用Yolov5训练自己的数据集
 成果：确诊阳性居家休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022.12.19-2022.12.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确诊阳性居家休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022.12.26-2022.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划：使用Yolov5训练自己的数据集
 成果：已完成使用yolov5训练自己的数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.1.3-2023.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划:学习守护线程
 成果:已完成守护线程的学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.1.9-2023.1.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划;图像处理并标注尺寸坐标
 成果：已完成图像处理并标注尺寸坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.1.16-2023.1.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划：学习opc通信
-成果：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+成果：opc客户端代码完成，未找到测试软件</t>
+  </si>
+  <si>
+    <t>20231.30-2023.2.3</t>
+  </si>
+  <si>
+    <t>计划：完成python服务端的代码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,9 +459,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -165,32 +711,76 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -274,7 +864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -448,90 +1038,85 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="42.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -539,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -547,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -555,27 +1140,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C54EA5-7FEE-482B-8DC8-4730A68B40D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="9155"/>
+    <workbookView windowWidth="23040" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -88,10 +88,18 @@
 成果：opc客户端代码完成，未找到测试软件</t>
   </si>
   <si>
-    <t>20231.30-2023.2.3</t>
-  </si>
-  <si>
-    <t>计划：完成python服务端的代码</t>
+    <t>2023.1.30-2023.2.3</t>
+  </si>
+  <si>
+    <t>计划：完成python服务端的代码
+成果：电脑损坏，数据丢失</t>
+  </si>
+  <si>
+    <t>2023.2.6-2023.2.11</t>
+  </si>
+  <si>
+    <t>计划：
+成果</t>
   </si>
 </sst>
 </file>
@@ -723,7 +731,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" outlineLevelCol="1"/>
@@ -1144,8 +1152,16 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>时间</t>
   </si>
@@ -98,8 +98,15 @@
     <t>2023.2.6-2023.2.11</t>
   </si>
   <si>
+    <t>计划：用python完成服务端和客户端代码并互相通信
+成果：完成了服务端发送数据</t>
+  </si>
+  <si>
+    <t>2023.2.13-2023.2.18</t>
+  </si>
+  <si>
     <t>计划：
-成果</t>
+成果：</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" outlineLevelCol="1"/>
@@ -1160,8 +1167,16 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007"/>
+    <workbookView windowWidth="18468" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>时间</t>
   </si>
@@ -105,7 +105,28 @@
     <t>2023.2.13-2023.2.18</t>
   </si>
   <si>
-    <t>计划：
+    <t>计划：用python完成服务端和客户端代码并互相通信
+成果：2.14和2.17在现场进行调试，opc互相通信未能实现</t>
+  </si>
+  <si>
+    <t>2023.2.20-2023.2.24</t>
+  </si>
+  <si>
+    <t>计划：剪辑视频，用python完成服务端和客户端代码并互相通信
+成果：</t>
+  </si>
+  <si>
+    <t>2023.4.3-2023.4.7</t>
+  </si>
+  <si>
+    <t>计划：现场调试
+成果：完成现场调试</t>
+  </si>
+  <si>
+    <t>2023.4.10-2023.4.16</t>
+  </si>
+  <si>
+    <t>计划：完善网站页面设计
 成果：</t>
   </si>
 </sst>
@@ -1059,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" outlineLevelCol="1"/>
@@ -1175,8 +1196,32 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5082DD-4CB0-4D69-876F-49D494440D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C10A37-AF9B-4159-9059-4B12A3BA86C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -145,8 +145,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划：学习modbus通信协议
+    <t>2023.5.4-2023.5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：找c++或python代码完成通信测试
 成果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：学习modbus通信协议找出测试软件
+成果：测试软件找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -654,7 +663,15 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C10A37-AF9B-4159-9059-4B12A3BA86C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7C861-0ED0-4E56-ADC9-95A52AB10FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,13 +149,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划：找c++或python代码完成通信测试
-成果：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划：学习modbus通信协议找出测试软件
 成果：测试软件找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：找c++或python代码完成通信测试
+成果：软件内调试成功，c++代码不成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7C861-0ED0-4E56-ADC9-95A52AB10FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F4E4E-0F80-4C98-87A6-ABA76620AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>时间</t>
   </si>
@@ -156,6 +156,24 @@
   <si>
     <t>计划：找c++或python代码完成通信测试
 成果：软件内调试成功，c++代码不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：c++与测试软件调试成功
+成果：libmodbus库安装成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.5.8-2023.5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.5.15-2023.5.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：完善c++代码协助现场拍摄照片
+成果：拍摄照片完成三组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -672,6 +690,22 @@
       </c>
       <c r="B19" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F4E4E-0F80-4C98-87A6-ABA76620AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86BC293-A52B-4928-B406-3EA56A0F1DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -174,6 +174,15 @@
   <si>
     <t>计划：完善c++代码协助现场拍摄照片
 成果：拍摄照片完成三组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.5.22-2023.5.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：训练完拍摄的照片
+成果：训练完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,6 +715,14 @@
       </c>
       <c r="B21" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86BC293-A52B-4928-B406-3EA56A0F1DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9160490-22A7-484F-AF56-01453E9CA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>时间</t>
   </si>
@@ -183,6 +183,15 @@
   <si>
     <t>计划：训练完拍摄的照片
 成果：训练完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.5.29-2023.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：项目测试，学习yolov8
+成果：yolov5修复，yolov8成功开始训练和测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -723,6 +732,14 @@
       </c>
       <c r="B22" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9160490-22A7-484F-AF56-01453E9CA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8129D-FEB8-446A-8B3A-EE5B863995E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>时间</t>
   </si>
@@ -192,6 +192,24 @@
   <si>
     <t>计划：项目测试，学习yolov8
 成果：yolov5修复，yolov8成功开始训练和测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.6.5-2023.6.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.6.12-2023.6.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：安装皮带线，相机调通
+成果：北京出差，皮带线安装完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：网页设计和训练
+成果：网页设计完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -740,6 +758,22 @@
       </c>
       <c r="B23" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8129D-FEB8-446A-8B3A-EE5B863995E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECA419-FAA3-47DB-9F71-C9184A221FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>时间</t>
   </si>
@@ -210,6 +210,15 @@
   <si>
     <t>计划：网页设计和训练
 成果：网页设计完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.6.25.2032.6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：采集照片，并完成训练
+成果:照片采集完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,6 +783,14 @@
       </c>
       <c r="B25" s="6" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECA419-FAA3-47DB-9F71-C9184A221FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7342A9EE-92B8-447B-AC54-C19E30B49068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -217,8 +217,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划：采集照片，并完成训练
-成果:照片采集完成</t>
+    <t>计划：采集照片，并完成训练，海康相机程序跑通，毛巾对新瑕疵拍照训练
+成果:照片采集完成，训练完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.3-2.023.7.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：毛巾训练新缺陷并制作ppt，海康相机程序，
+成果：毛巾训练及ppt制作完成，五号库名牌识别增加新的训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -791,6 +800,14 @@
       </c>
       <c r="B26" s="6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7342A9EE-92B8-447B-AC54-C19E30B49068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E00479-F681-4D8B-90C8-7B0796B35395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>时间</t>
   </si>
@@ -228,6 +228,23 @@
   <si>
     <t>计划：毛巾训练新缺陷并制作ppt，海康相机程序，
 成果：毛巾训练及ppt制作完成，五号库名牌识别增加新的训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：ppt，python与s7通信的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划;pyton plc通讯 python s7通信
+成果：通信测试完成，python s7未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.10-2023.7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.17-2023.7.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -808,6 +825,22 @@
       </c>
       <c r="B27" s="6" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E00479-F681-4D8B-90C8-7B0796B35395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1E3FE-B02A-4B27-B628-6C9CA4CF6EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划：ppt，python与s7通信的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划;pyton plc通讯 python s7通信
 成果：通信测试完成，python s7未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +241,11 @@
   </si>
   <si>
     <t>2023.7.17-2023.7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：ppt，python与s7通信的代码
+成果：ppt完成，python与s7代码完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +599,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -829,18 +830,18 @@
     </row>
     <row r="28" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1E3FE-B02A-4B27-B628-6C9CA4CF6EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC11D2-11AE-451D-BD84-69332679E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>时间</t>
   </si>
@@ -246,6 +246,33 @@
   <si>
     <t>计划：ppt，python与s7通信的代码
 成果：ppt完成，python与s7代码完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.1-2023.8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.24-2023.7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：python s7读写的代码，细读caibai程序
+成果;python代码完成，caibai程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.7-2023.8.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：cad图纸，菜百程序运行
+成果：caibai程序运行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：cad图纸，菜百程序运行
+成果：新冠阳性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,6 +869,30 @@
       </c>
       <c r="B29" s="6" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC11D2-11AE-451D-BD84-69332679E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F8422-919F-4843-9BD3-8A230D3C005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>时间</t>
   </si>
@@ -272,7 +272,16 @@
   </si>
   <si>
     <t>计划：cad图纸，菜百程序运行
-成果：新冠阳性</t>
+新冠阳性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.14-2023.8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：cad图纸，菜百程序运行
+成果：caibai程序运行成功，学习cad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -893,6 +902,14 @@
       </c>
       <c r="B32" s="6" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F8422-919F-4843-9BD3-8A230D3C005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BE517-28EF-449C-A410-59A68E925D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>时间</t>
   </si>
@@ -282,6 +282,15 @@
   <si>
     <t>计划：cad图纸，菜百程序运行
 成果：caibai程序运行成功，学习cad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.21-2023.8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：调用海康相机进行字符识别，并拍照，录视频
+成果：程序运行完成，字符识别完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -910,6 +919,14 @@
       </c>
       <c r="B33" s="6" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BE517-28EF-449C-A410-59A68E925D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E489521-AFC6-4B74-B546-BCD4C96AB7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022.11" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>时间</t>
   </si>
@@ -291,6 +291,15 @@
   <si>
     <t>计划：调用海康相机进行字符识别，并拍照，录视频
 成果：程序运行完成，字符识别完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.8.28-2023.9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：调用海康相机进行汉字字符识别，并拍照，录视频
+成果：汉字字符识别完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,6 +936,14 @@
       </c>
       <c r="B34" s="6" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E489521-AFC6-4B74-B546-BCD4C96AB7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12C1D0-95A2-4293-B701-E41D42ECA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>时间</t>
   </si>
@@ -300,6 +300,15 @@
   <si>
     <t>计划：调用海康相机进行汉字字符识别，并拍照，录视频
 成果：汉字字符识别完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.9.4-2023.9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：调用海康相机进行字符识别，并进行现场演示
+成果：演示完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -944,6 +953,14 @@
       </c>
       <c r="B35" s="6" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12C1D0-95A2-4293-B701-E41D42ECA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA67694-D846-4D77-A27E-3E0A03A661D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>时间</t>
   </si>
@@ -309,6 +309,59 @@
   <si>
     <t>计划：调用海康相机进行字符识别，并进行现场演示
 成果：演示完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.9.11-2023.9.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.9.18-2023.9.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：调通海康扫码器sdk
+成果：相机接线完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：调通海康扫码器sdk
+成果：sdk调通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.9.25-2023.9.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.9-2023.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.23-2023.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.16-2023.10.20</t>
+  </si>
+  <si>
+    <t>计划：根据海康sdk写出调用相机代码
+成果：未找到ip代码位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：根据海康sdk写出调用相机代码，大模型重新训练
+成果：远处训练完成，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：海康扫码sdk改错，海康官网学习视频写一个调用海康相机的服务器
+成果：代码改错未完成，官网视频已看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：给零件拍照，培训课，近处大模型训练
+成果：近处模型训练完成培训课零件拍照完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -961,6 +1014,54 @@
       </c>
       <c r="B36" s="6" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA67694-D846-4D77-A27E-3E0A03A661D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E23B18B-0BD1-4FB7-AD65-3E7B6D06E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>时间</t>
   </si>
@@ -362,6 +362,27 @@
   <si>
     <t>计划：给零件拍照，培训课，近处大模型训练
 成果：近处模型训练完成培训课零件拍照完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.30-2023.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.6-2023.11.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.13-2023.11.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发烧重感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：海康培训，选择相机镜头，学习vm软件的使用完成简单的尺寸测量，包括通信
+成果：简单测量和通信学习完成代码问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1062,6 +1083,30 @@
       </c>
       <c r="B42" s="7" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/日志-齐鑫.xlsx
+++ b/日志-齐鑫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E23B18B-0BD1-4FB7-AD65-3E7B6D06E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A09254-4D2E-4B21-BB4C-6525D7423159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>时间</t>
   </si>
@@ -383,6 +383,15 @@
   <si>
     <t>计划：海康培训，选择相机镜头，学习vm软件的使用完成简单的尺寸测量，包括通信
 成果：简单测量和通信学习完成代码问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.20-2023.11.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划：vm软件的通信，新产品ppt介绍
+成果：vm通信与ppt完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1116,14 @@
       </c>
       <c r="B45" s="7" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
